--- a/results_RTA.xlsx
+++ b/results_RTA.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="156" windowWidth="12504" windowHeight="9432"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="12510" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -209,7 +209,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -248,7 +248,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -266,7 +266,12 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -325,11 +330,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="55"/>
-        <c:axId val="76063104"/>
-        <c:axId val="76065408"/>
+        <c:axId val="35373440"/>
+        <c:axId val="35375744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76063104"/>
+        <c:axId val="35373440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -355,18 +360,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76065408"/>
+        <c:crossAx val="35375744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76065408"/>
+        <c:axId val="35375744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -390,21 +401,26 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="76063104"/>
+        <c:crossAx val="35373440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -412,7 +428,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -431,7 +447,12 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -444,6 +465,22 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="25400">
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr/>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
               <c:showVal val="1"/>
               <c:showSerName val="1"/>
             </c:dLbl>
@@ -526,11 +563,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="76094848"/>
-        <c:axId val="76117504"/>
+        <c:axId val="45318144"/>
+        <c:axId val="45320064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76094848"/>
+        <c:axId val="45318144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,18 +593,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76117504"/>
+        <c:crossAx val="45320064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76117504"/>
+        <c:axId val="45320064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -591,21 +634,26 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="76094848"/>
+        <c:crossAx val="45318144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -613,7 +661,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:plotArea>
       <c:layout>
@@ -621,10 +669,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14873786877797043"/>
-          <c:y val="0.17769982922910268"/>
-          <c:w val="0.70878525817576155"/>
-          <c:h val="0.69874525425135214"/>
+          <c:x val="0.14687787461339"/>
+          <c:y val="0.19410334934811801"/>
+          <c:w val="0.71152215905528449"/>
+          <c:h val="0.66257219250053789"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -1287,25 +1335,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78711424"/>
-        <c:axId val="78729600"/>
+        <c:axId val="45347584"/>
+        <c:axId val="45349120"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="78711424"/>
+        <c:axId val="45347584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78729600"/>
+        <c:crossAx val="45349120"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78729600"/>
+        <c:axId val="45349120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,7 +1362,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78711424"/>
+        <c:crossAx val="45347584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1325,14 +1373,15 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37928074771991893"/>
-          <c:y val="0.91329704053278993"/>
-          <c:w val="0.33151245279030356"/>
-          <c:h val="7.0861682880346388E-2"/>
+          <c:x val="0.3799475558861346"/>
+          <c:y val="0.9131866435576016"/>
+          <c:w val="0.33069509493793198"/>
+          <c:h val="7.0434126767671523E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1341,8 +1390,8 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
@@ -1365,8 +1414,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1025" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1385,18 +1436,20 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1026" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1413,20 +1466,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>240722</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>115683</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1027" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1447,12 +1502,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.27063</cdr:x>
-      <cdr:y>0.0672</cdr:y>
+      <cdr:x>0.26989</cdr:x>
+      <cdr:y>0.06646</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.76063</cdr:x>
-      <cdr:y>0.1255</cdr:y>
+      <cdr:x>0.76212</cdr:x>
+      <cdr:y>0.12401</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1472,19 +1527,19 @@
         <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="en-GB" sz="1100"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.24831</cdr:x>
-      <cdr:y>0.06089</cdr:y>
+      <cdr:x>0.24757</cdr:x>
+      <cdr:y>0.06039</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.7542</cdr:x>
-      <cdr:y>0.10106</cdr:y>
+      <cdr:x>0.75544</cdr:x>
+      <cdr:y>0.09982</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1808,11 +1863,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C6:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="6" spans="5:6">
       <c r="E6" t="s">
@@ -1862,7 +1917,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="32" spans="6:8" ht="15.6">
+    <row r="32" spans="6:8" ht="15.75">
       <c r="F32" s="1" t="s">
         <v>11</v>
       </c>
@@ -1870,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:8" ht="15.6">
+    <row r="33" spans="6:8" ht="15.75">
       <c r="F33" s="1" t="s">
         <v>12</v>
       </c>
@@ -1878,7 +1933,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="34" spans="6:8" ht="15.6">
+    <row r="34" spans="6:8" ht="15.75">
       <c r="F34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1886,7 +1941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="6:8" ht="15.6">
+    <row r="37" spans="6:8" ht="15.75">
       <c r="F37" s="1" t="s">
         <v>11</v>
       </c>
@@ -1894,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="6:8" ht="15.6">
+    <row r="38" spans="6:8" ht="15.75">
       <c r="F38" s="1" t="s">
         <v>13</v>
       </c>
@@ -1902,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="6:8" ht="15.6">
+    <row r="39" spans="6:8" ht="15.75">
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
@@ -2467,6 +2522,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2479,8 +2535,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2491,8 +2548,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>